--- a/FinalExamScheduling/FinalExamScheduling/Results/Done_20180823_1816.xlsx
+++ b/FinalExamScheduling/FinalExamScheduling/Results/Done_20180823_1816.xlsx
@@ -1,1778 +1,2085 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BME\8.félév\Kutatás\Schedule\FinalExamScheduling\FinalExamScheduling\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527F0B65-3017-4469-80B0-653F8D372349}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
-    <sheet name="Information" sheetId="2" r:id="rId2"/>
+    <sheet name="Munka1" sheetId="3" r:id="rId2"/>
+    <sheet name="Information" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">Szilvia Erdős</d:author>
+    <author>Szilvia Erdős</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Not President: 2
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Examiner not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Not President: 2
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C18" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D18" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C19" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D19" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C20" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D20" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D21" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 Not President: 2
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C22" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B24" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Not President: 2
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="F25" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Examiner not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B27" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="F27" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Examiner not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D29" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D30" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B31" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Not Secretary: 1
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="F31" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Examiner not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C32" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E33" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C36" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="F39" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Examiner not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="F40" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Examiner not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B41" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B42" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D43" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="F43" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Examiner not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D44" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="F45" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Examiner not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D47" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C48" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D48" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B49" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Not President: 2
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C49" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D49" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D50" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D51" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C52" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C54" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B55" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B56" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D56" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B58" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B59" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E59" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E60" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B61" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Not Secretary: 1
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B62" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D62" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D63" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C64" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D64" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="F64" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Examiner not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C65" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D65" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D66" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E66" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B67" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Not President: 2
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B68" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D68" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D69" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E69" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000050000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C70" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000051000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B71" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000052000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Not President: 2
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C71" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000053000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B72" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000054000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C72" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000055000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D72" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000056000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D73" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000057000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D74" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000058000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D75" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000059000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C76" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D76" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E76" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C77" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D77" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E77" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="F77" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000060000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Examiner not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C78" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000061000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D78" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000062000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E78" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000063000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C79" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000064000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D79" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000065000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="F79" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000066000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Examiner not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B80" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B80" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000067000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C80" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000068000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C81" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000069000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D81" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B82" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 Not Secretary: 1
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D82" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B83" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Not Secretary: 1
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D83" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="F83" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Examiner not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C84" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000070000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D84" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000071000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E84" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000072000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D85" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000073000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C86" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000074000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D86" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000075000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E87" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000076000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B88" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000077000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Not President: 2
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C88" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000078000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D88" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000079000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C89" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D89" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C90" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D90" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary not available: 1000
 Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E90" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C91" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D91" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000080000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E91" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000081000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B92" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000082000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 Not President: 2
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D93" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000083000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D95" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000084000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C96" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000085000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D96" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000086000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="F97" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000087000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Examiner not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B98" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000088000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Supervisor not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C98" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000089000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="D98" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Secretary changed: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E98" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C99" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="E99" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Member not available: 5
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C100" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="B101" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Not Secretary: 1
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="C101" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000090000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">President not available: 1000
 </t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="F101" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000091000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Examiner not available: 1000
 </t>
-        </d:r>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -1780,7 +2087,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="192">
   <si>
     <t>Student</t>
   </si>
@@ -2361,9 +2668,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2372,6 +2678,14 @@
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2383,32 +2697,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC300" tint="0"/>
+        <fgColor rgb="FFFFC300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE500" tint="0"/>
+        <fgColor rgb="FFFFE500"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB700" tint="0"/>
+        <fgColor rgb="FFFFB700"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFE00" tint="0"/>
+        <fgColor rgb="FFFFFE00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBC00" tint="0"/>
+        <fgColor rgb="FFFFBC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2424,54 +2738,73 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="dotted"/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="6" applyFill="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2483,21 +2816,20 @@
               <a:defRPr sz="1800" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr/>
               <a:t>Fitness alakulása a generációk előrehaladtával</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -2508,16 +2840,61 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Information'!$A$2:$A$5</c:f>
+              <c:f>Information!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Information'!$B$2:$B$5</c:f>
+              <c:f>Information!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-174917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-163933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-119982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-113888</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-        </ser>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56E9-43BB-8B2D-0B009F43B08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:smooth val="0"/>
         <c:axId val="1"/>
         <c:axId val="2"/>
@@ -2529,12 +2906,16 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2"/>
@@ -2544,6 +2925,9 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
@@ -2551,6 +2935,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2560,7 +2946,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2575,9 +2961,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="lineChart"/>
+        <xdr:cNvPr id="2" name="lineChart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2589,31 +2981,327 @@
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.0495060511998" customWidth="1"/>
-    <col min="2" max="2" width="20.5624346051897" customWidth="1"/>
-    <col min="3" max="3" width="16.7269624982561" customWidth="1"/>
-    <col min="4" max="4" width="22.3640529087612" customWidth="1"/>
-    <col min="5" max="5" width="19.4309234619141" customWidth="1"/>
-    <col min="6" max="6" width="19.4166019984654" customWidth="1"/>
-    <col min="7" max="7" width="34.4229234967913" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2636,8 +3324,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2646,101 +3334,101 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -2762,38 +3450,38 @@
       <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2802,75 +3490,75 @@
       <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -2892,38 +3580,38 @@
       <c r="G11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2935,24 +3623,24 @@
       <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>11</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2961,24 +3649,24 @@
       <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>12</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2987,20 +3675,20 @@
       <c r="D15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>13</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -3022,38 +3710,38 @@
       <c r="G16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>14</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>15</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3065,24 +3753,24 @@
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>16</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3091,24 +3779,24 @@
       <c r="D19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>17</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -3117,20 +3805,20 @@
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>18</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>66</v>
       </c>
@@ -3152,12 +3840,12 @@
       <c r="G21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>19</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -3166,101 +3854,101 @@
       <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <v>21</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="0">
+      <c r="H24">
         <v>22</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="0">
+      <c r="H25">
         <v>23</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>73</v>
       </c>
@@ -3282,115 +3970,115 @@
       <c r="G26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="0">
+      <c r="H26">
         <v>24</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="0">
+      <c r="H27">
         <v>25</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="0">
+      <c r="H28">
         <v>26</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="0">
+      <c r="H29">
         <v>27</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>79</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="0">
+      <c r="H30">
         <v>28</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>80</v>
       </c>
@@ -3412,115 +4100,115 @@
       <c r="G31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="0">
+      <c r="H31">
         <v>29</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" t="s">
         <v>83</v>
       </c>
-      <c r="H32" s="0">
+      <c r="H32">
         <v>30</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>78</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="0">
+      <c r="H33">
         <v>31</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="0">
+      <c r="H34">
         <v>32</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="0">
+      <c r="H35">
         <v>33</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>87</v>
       </c>
@@ -3542,115 +4230,115 @@
       <c r="G36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="0">
+      <c r="H36">
         <v>34</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="0">
+      <c r="H37">
         <v>35</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="0">
+      <c r="H38">
         <v>36</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>35</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="0">
+      <c r="H39">
         <v>37</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>35</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="0">
+      <c r="H40">
         <v>38</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>92</v>
       </c>
@@ -3672,115 +4360,115 @@
       <c r="G41" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="0">
+      <c r="H41">
         <v>39</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="0">
+      <c r="H42">
         <v>40</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>55</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="0">
+      <c r="H43">
         <v>41</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="0">
+      <c r="H44">
         <v>42</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" t="s">
         <v>55</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="0">
+      <c r="H45">
         <v>43</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>97</v>
       </c>
@@ -3802,41 +4490,41 @@
       <c r="G46" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="0">
+      <c r="H46">
         <v>44</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" t="s">
         <v>45</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" t="s">
         <v>46</v>
       </c>
-      <c r="H47" s="0">
+      <c r="H47">
         <v>45</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -3845,21 +4533,21 @@
       <c r="D48" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" t="s">
         <v>25</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="0">
+      <c r="H48">
         <v>46</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>101</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -3871,46 +4559,46 @@
       <c r="D49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" t="s">
         <v>52</v>
       </c>
-      <c r="H49" s="0">
+      <c r="H49">
         <v>47</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" t="s">
         <v>51</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" t="s">
         <v>52</v>
       </c>
-      <c r="H50" s="0">
+      <c r="H50">
         <v>48</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>104</v>
       </c>
@@ -3932,115 +4620,115 @@
       <c r="G51" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="0">
+      <c r="H51">
         <v>49</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>94</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" t="s">
         <v>23</v>
       </c>
-      <c r="H52" s="0">
+      <c r="H52">
         <v>50</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" t="s">
         <v>40</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="0">
+      <c r="H53">
         <v>51</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="0">
+      <c r="H54">
         <v>52</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" t="s">
         <v>29</v>
       </c>
-      <c r="H55" s="0">
+      <c r="H55">
         <v>53</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>109</v>
       </c>
@@ -4062,115 +4750,115 @@
       <c r="G56" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H56" s="0">
+      <c r="H56">
         <v>54</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" t="s">
         <v>29</v>
       </c>
-      <c r="H57" s="0">
+      <c r="H57">
         <v>55</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" t="s">
         <v>62</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="0">
+      <c r="H58">
         <v>56</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" t="s">
         <v>44</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" t="s">
         <v>28</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="0">
+      <c r="H59">
         <v>57</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" t="s">
         <v>44</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" t="s">
         <v>28</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="0">
+      <c r="H60">
         <v>58</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>114</v>
       </c>
@@ -4192,67 +4880,67 @@
       <c r="G61" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H61" s="0">
+      <c r="H61">
         <v>59</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>43</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" t="s">
         <v>51</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" t="s">
         <v>52</v>
       </c>
-      <c r="H62" s="0">
+      <c r="H62">
         <v>60</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" t="s">
         <v>40</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" t="s">
         <v>45</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" t="s">
         <v>46</v>
       </c>
-      <c r="H63" s="0">
+      <c r="H63">
         <v>61</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>119</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -4261,24 +4949,24 @@
       <c r="D64" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" t="s">
         <v>40</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" t="s">
         <v>18</v>
       </c>
-      <c r="H64" s="0">
+      <c r="H64">
         <v>62</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>28</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -4287,20 +4975,20 @@
       <c r="D65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" t="s">
         <v>55</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" t="s">
         <v>28</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" t="s">
         <v>29</v>
       </c>
-      <c r="H65" s="0">
+      <c r="H65">
         <v>63</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>121</v>
       </c>
@@ -4322,70 +5010,70 @@
       <c r="G66" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H66" s="0">
+      <c r="H66">
         <v>64</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>122</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" t="s">
         <v>78</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" t="s">
         <v>28</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="0">
+      <c r="H67">
         <v>65</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>31</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" t="s">
         <v>35</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" t="s">
         <v>28</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" t="s">
         <v>29</v>
       </c>
-      <c r="H68" s="0">
+      <c r="H68">
         <v>66</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>31</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -4394,43 +5082,43 @@
       <c r="E69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" t="s">
         <v>28</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" t="s">
         <v>29</v>
       </c>
-      <c r="H69" s="0">
+      <c r="H69">
         <v>67</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>127</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>78</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" t="s">
         <v>128</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" t="s">
         <v>129</v>
       </c>
-      <c r="H70" s="0">
+      <c r="H70">
         <v>68</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>130</v>
       </c>
@@ -4452,12 +5140,12 @@
       <c r="G71" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H71" s="0">
+      <c r="H71">
         <v>69</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -4469,98 +5157,98 @@
       <c r="D72" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" t="s">
         <v>29</v>
       </c>
-      <c r="H72" s="0">
+      <c r="H72">
         <v>70</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>132</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" t="s">
         <v>28</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" t="s">
         <v>29</v>
       </c>
-      <c r="H73" s="0">
+      <c r="H73">
         <v>71</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" t="s">
         <v>28</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" t="s">
         <v>17</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" t="s">
         <v>18</v>
       </c>
-      <c r="H74" s="0">
+      <c r="H74">
         <v>72</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" t="s">
         <v>55</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" t="s">
         <v>28</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="0">
+      <c r="H75">
         <v>73</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>135</v>
       </c>
@@ -4582,15 +5270,15 @@
       <c r="G76" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H76" s="0">
+      <c r="H76">
         <v>74</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -4605,18 +5293,18 @@
       <c r="F77" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="G77" t="s">
         <v>18</v>
       </c>
-      <c r="H77" s="0">
+      <c r="H77">
         <v>75</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>137</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -4628,21 +5316,21 @@
       <c r="E78" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" t="s">
         <v>45</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" t="s">
         <v>46</v>
       </c>
-      <c r="H78" s="0">
+      <c r="H78">
         <v>76</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -4651,21 +5339,21 @@
       <c r="D79" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" t="s">
         <v>21</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G79" s="0" t="s">
+      <c r="G79" t="s">
         <v>23</v>
       </c>
-      <c r="H79" s="0">
+      <c r="H79">
         <v>77</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -4674,23 +5362,23 @@
       <c r="C80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" t="s">
         <v>75</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" t="s">
         <v>17</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="G80" t="s">
         <v>18</v>
       </c>
-      <c r="H80" s="0">
+      <c r="H80">
         <v>78</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>140</v>
       </c>
@@ -4712,67 +5400,67 @@
       <c r="G81" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H81" s="0">
+      <c r="H81">
         <v>79</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>141</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>31</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" t="s">
         <v>28</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" t="s">
         <v>45</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="G82" t="s">
         <v>46</v>
       </c>
-      <c r="H82" s="0">
+      <c r="H82">
         <v>80</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>142</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>31</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" t="s">
         <v>35</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="G83" t="s">
         <v>23</v>
       </c>
-      <c r="H83" s="0">
+      <c r="H83">
         <v>81</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -4784,43 +5472,43 @@
       <c r="E84" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" t="s">
         <v>28</v>
       </c>
-      <c r="G84" s="0" t="s">
+      <c r="G84" t="s">
         <v>29</v>
       </c>
-      <c r="H84" s="0">
+      <c r="H84">
         <v>82</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" t="s">
         <v>55</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F85" t="s">
         <v>45</v>
       </c>
-      <c r="G85" s="0" t="s">
+      <c r="G85" t="s">
         <v>46</v>
       </c>
-      <c r="H85" s="0">
+      <c r="H85">
         <v>83</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>145</v>
       </c>
@@ -4842,38 +5530,38 @@
       <c r="G86" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H86" s="0">
+      <c r="H86">
         <v>84</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>146</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>67</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" t="s">
         <v>44</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="F87" t="s">
         <v>56</v>
       </c>
-      <c r="G87" s="0" t="s">
+      <c r="G87" t="s">
         <v>18</v>
       </c>
-      <c r="H87" s="0">
+      <c r="H87">
         <v>85</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>147</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -4885,24 +5573,24 @@
       <c r="D88" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="F88" t="s">
         <v>148</v>
       </c>
-      <c r="G88" s="0" t="s">
+      <c r="G88" t="s">
         <v>149</v>
       </c>
-      <c r="H88" s="0">
+      <c r="H88">
         <v>86</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>150</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>59</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -4911,24 +5599,24 @@
       <c r="D89" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" t="s">
         <v>28</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="F89" t="s">
         <v>28</v>
       </c>
-      <c r="G89" s="0" t="s">
+      <c r="G89" t="s">
         <v>29</v>
       </c>
-      <c r="H89" s="0">
+      <c r="H89">
         <v>87</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>151</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -4940,17 +5628,17 @@
       <c r="E90" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" t="s">
         <v>25</v>
       </c>
-      <c r="G90" s="0" t="s">
+      <c r="G90" t="s">
         <v>18</v>
       </c>
-      <c r="H90" s="0">
+      <c r="H90">
         <v>88</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>152</v>
       </c>
@@ -4972,115 +5660,115 @@
       <c r="G91" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H91" s="0">
+      <c r="H91">
         <v>89</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>153</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" t="s">
         <v>43</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" t="s">
         <v>75</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" t="s">
         <v>20</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" t="s">
         <v>38</v>
       </c>
-      <c r="G92" s="0" t="s">
+      <c r="G92" t="s">
         <v>23</v>
       </c>
-      <c r="H92" s="0">
+      <c r="H92">
         <v>90</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>154</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>43</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" t="s">
         <v>28</v>
       </c>
-      <c r="G93" s="0" t="s">
+      <c r="G93" t="s">
         <v>29</v>
       </c>
-      <c r="H93" s="0">
+      <c r="H93">
         <v>91</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>155</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>40</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>43</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" t="s">
         <v>56</v>
       </c>
-      <c r="G94" s="0" t="s">
+      <c r="G94" t="s">
         <v>18</v>
       </c>
-      <c r="H94" s="0">
+      <c r="H94">
         <v>92</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>156</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>38</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>43</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E95" t="s">
         <v>11</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" t="s">
         <v>51</v>
       </c>
-      <c r="G95" s="0" t="s">
+      <c r="G95" t="s">
         <v>52</v>
       </c>
-      <c r="H95" s="0">
+      <c r="H95">
         <v>93</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>157</v>
       </c>
@@ -5102,38 +5790,38 @@
       <c r="G96" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H96" s="0">
+      <c r="H96">
         <v>94</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>158</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>34</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" t="s">
         <v>61</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E97" t="s">
         <v>15</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G97" s="0" t="s">
+      <c r="G97" t="s">
         <v>18</v>
       </c>
-      <c r="H97" s="0">
+      <c r="H97">
         <v>95</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>159</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -5148,69 +5836,69 @@
       <c r="E98" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" t="s">
         <v>28</v>
       </c>
-      <c r="G98" s="0" t="s">
+      <c r="G98" t="s">
         <v>29</v>
       </c>
-      <c r="H98" s="0">
+      <c r="H98">
         <v>96</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>160</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>103</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" t="s">
         <v>48</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F99" s="0" t="s">
+      <c r="F99" t="s">
         <v>38</v>
       </c>
-      <c r="G99" s="0" t="s">
+      <c r="G99" t="s">
         <v>23</v>
       </c>
-      <c r="H99" s="0">
+      <c r="H99">
         <v>97</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>161</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>56</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" t="s">
         <v>48</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" t="s">
         <v>28</v>
       </c>
-      <c r="G100" s="0" t="s">
+      <c r="G100" t="s">
         <v>29</v>
       </c>
-      <c r="H100" s="0">
+      <c r="H100">
         <v>98</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>162</v>
       </c>
@@ -5232,330 +5920,344 @@
       <c r="G101" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H101" s="0">
+      <c r="H101">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C559321-2017-4714-B3BB-0ED1D05F855E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.770023890904" customWidth="1"/>
-    <col min="2" max="2" width="17.4840316772461" customWidth="1"/>
-    <col min="4" max="4" width="24.076664515904" customWidth="1"/>
-    <col min="5" max="5" width="17.3295484270368" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="0">
+      <c r="E1">
         <v>-113888</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>-174917</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>25000</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>-163933</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>50000</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>-119982</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>-113888</v>
       </c>
     </row>
-    <row r="6">
-      <c r="D6" s="0" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7">
-      <c r="D7" s="0" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>10000</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="D8" s="0" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>1000</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>15000</v>
       </c>
     </row>
-    <row r="9">
-      <c r="D9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>1000</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>30000</v>
       </c>
     </row>
-    <row r="10">
-      <c r="D10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>1000</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>14000</v>
       </c>
     </row>
-    <row r="11">
-      <c r="D11" s="0" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>75</v>
       </c>
     </row>
-    <row r="12">
-      <c r="D12" s="0" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>100</v>
       </c>
     </row>
-    <row r="13">
-      <c r="D13" s="0" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>1000</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>24000</v>
       </c>
     </row>
-    <row r="14">
-      <c r="D14" s="0" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>177</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>1000</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>30000</v>
       </c>
     </row>
-    <row r="15">
-      <c r="D15" s="0" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>30</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>120</v>
       </c>
     </row>
-    <row r="16">
-      <c r="D16" s="0" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>179</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>20</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="D17" s="0" t="s">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="D18" s="0" t="s">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>181</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>30</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>270</v>
       </c>
     </row>
-    <row r="19">
-      <c r="D19" s="0" t="s">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>20</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="D20" s="0" t="s">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="D21" s="0" t="s">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>184</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>30</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>300</v>
       </c>
     </row>
-    <row r="22">
-      <c r="D22" s="0" t="s">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>20</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="D23" s="0" t="s">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>10</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="D24" s="0" t="s">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>18</v>
       </c>
     </row>
-    <row r="25">
-      <c r="D25" s="0" t="s">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>5</v>
       </c>
     </row>
-    <row r="26">
-      <c r="D26" s="0" t="s">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>189</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="D28" s="0" t="s">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>